--- a/Result/Result.xlsx
+++ b/Result/Result.xlsx
@@ -471,13 +471,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C2">
-        <v>64.06060606060606</v>
+        <v>64.80487804878049</v>
       </c>
       <c r="D2">
-        <v>0.0002311752890456594</v>
+        <v>0.0002905547507068672</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -485,13 +485,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>71.76315789473684</v>
+        <v>68.86</v>
       </c>
       <c r="D3">
-        <v>0.0002982095616024187</v>
+        <v>0.0003765073416197755</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -499,13 +499,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>63.21052631578947</v>
+        <v>64.41666666666667</v>
       </c>
       <c r="D4">
-        <v>0.0002626693681587862</v>
+        <v>0.0003381239327006523</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -513,13 +513,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C5">
-        <v>41.1140350877193</v>
+        <v>42.74820143884892</v>
       </c>
       <c r="D5">
-        <v>0.0005125442666778646</v>
+        <v>0.0006497840905909689</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -527,13 +527,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="C6">
-        <v>42.02380952380953</v>
+        <v>43.94666666666667</v>
       </c>
       <c r="D6">
-        <v>0.0005790317670277987</v>
+        <v>0.0007208644774782341</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -541,13 +541,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C7">
-        <v>42.53846153846154</v>
+        <v>43.7448275862069</v>
       </c>
       <c r="D7">
-        <v>0.0006047300607485793</v>
+        <v>0.0006936352215783433</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -555,13 +555,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C8">
-        <v>65.12941176470588</v>
+        <v>65.68269230769231</v>
       </c>
       <c r="D8">
-        <v>0.0006053861873967694</v>
+        <v>0.0007470001889644747</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -569,13 +569,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C9">
-        <v>64.53488372093024</v>
+        <v>66.65957446808511</v>
       </c>
       <c r="D9">
-        <v>0.0006069171495758798</v>
+        <v>0.0006852149295932364</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -583,13 +583,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C10">
-        <v>59.07246376811595</v>
+        <v>60.1830985915493</v>
       </c>
       <c r="D10">
-        <v>0.0004457287030038353</v>
+        <v>0.0004672715279527449</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -597,13 +597,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C11">
-        <v>60.82758620689656</v>
+        <v>57.34782608695652</v>
       </c>
       <c r="D11">
-        <v>0.0001929012345679012</v>
+        <v>0.0002884770163209317</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -611,13 +611,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C12">
-        <v>60.42307692307692</v>
+        <v>59.87878787878788</v>
       </c>
       <c r="D12">
-        <v>0.0001717958273844517</v>
+        <v>0.0002160843761372862</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -625,13 +625,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>62</v>
+        <v>64.82352941176471</v>
       </c>
       <c r="D13">
-        <v>0.000196619285574312</v>
+        <v>0.0002410171887685115</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -639,13 +639,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C14">
-        <v>59.37142857142857</v>
+        <v>63.69047619047619</v>
       </c>
       <c r="D14">
-        <v>0.0002272385291565186</v>
+        <v>0.0002925231306514375</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -653,13 +653,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C15">
-        <v>67.41935483870968</v>
+        <v>62.14893617021276</v>
       </c>
       <c r="D15">
-        <v>0.0002285507824528989</v>
+        <v>0.0003194243232272333</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -667,13 +667,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C16">
-        <v>63.80645161290322</v>
+        <v>64.15384615384616</v>
       </c>
       <c r="D16">
-        <v>0.0002163030850200162</v>
+        <v>0.0002736048122952885</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -681,13 +681,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="C17">
-        <v>62.3855421686747</v>
+        <v>66.50442477876106</v>
       </c>
       <c r="D17">
-        <v>0.0005662372973880911</v>
+        <v>0.0008217986268581507</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -695,13 +695,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="C18">
-        <v>65.89772727272727</v>
+        <v>67.38655462184875</v>
       </c>
       <c r="D18">
-        <v>0.0006341464054757705</v>
+        <v>0.0008769132653061226</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -709,13 +709,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="C19">
-        <v>58.45783132530121</v>
+        <v>63.7787610619469</v>
       </c>
       <c r="D19">
-        <v>0.0005305877495030934</v>
+        <v>0.0007881174589177234</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -723,13 +723,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C20">
-        <v>66.2</v>
+        <v>64.86842105263158</v>
       </c>
       <c r="D20">
-        <v>0.0001447852803672909</v>
+        <v>0.0002695586979647826</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -737,13 +737,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C21">
-        <v>77.27272727272727</v>
+        <v>68.69090909090909</v>
       </c>
       <c r="D21">
-        <v>0.0002788538254808096</v>
+        <v>0.0004131410794770583</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -751,13 +751,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C22">
-        <v>61.31034482758621</v>
+        <v>68.34090909090909</v>
       </c>
       <c r="D22">
-        <v>0.0001944321967470116</v>
+        <v>0.0003288288051846253</v>
       </c>
     </row>
   </sheetData>

--- a/Result/Result.xlsx
+++ b/Result/Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Data Kayu</t>
   </si>
@@ -28,6 +28,15 @@
     <t>Circle Density</t>
   </si>
   <si>
+    <t>10E1P451 (1).jpg</t>
+  </si>
+  <si>
+    <t>10E1P451 (2).jpg</t>
+  </si>
+  <si>
+    <t>10E1P451 (3).jpg</t>
+  </si>
+  <si>
     <t>12073 (1).jpg</t>
   </si>
   <si>
@@ -55,6 +64,24 @@
     <t>19081 (3).jpg</t>
   </si>
   <si>
+    <t>2055 (1).jpg</t>
+  </si>
+  <si>
+    <t>2055 (2).jpg</t>
+  </si>
+  <si>
+    <t>2055 (3).jpg</t>
+  </si>
+  <si>
+    <t>2059 (1).jpg</t>
+  </si>
+  <si>
+    <t>2059 (2).jpg</t>
+  </si>
+  <si>
+    <t>2059 (3).jpg</t>
+  </si>
+  <si>
     <t>23551 (1).jpg</t>
   </si>
   <si>
@@ -73,6 +100,15 @@
     <t>3011 (3).jpg</t>
   </si>
   <si>
+    <t>3044 (1).jpg</t>
+  </si>
+  <si>
+    <t>3044 (2).jpg</t>
+  </si>
+  <si>
+    <t>3044 (3).jpg</t>
+  </si>
+  <si>
     <t>31148 (1).jpg</t>
   </si>
   <si>
@@ -80,6 +116,24 @@
   </si>
   <si>
     <t>31148 (3).jpg</t>
+  </si>
+  <si>
+    <t>4426 (1).jpg</t>
+  </si>
+  <si>
+    <t>4426 (2).jpg</t>
+  </si>
+  <si>
+    <t>4426 (3).jpg</t>
+  </si>
+  <si>
+    <t>4645 (1).jpg</t>
+  </si>
+  <si>
+    <t>4645 (2).jpg</t>
+  </si>
+  <si>
+    <t>4645 (3).jpg</t>
   </si>
   <si>
     <t>E2259 (1).jpg</t>
@@ -446,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,13 +525,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="C2">
-        <v>64.80487804878049</v>
+        <v>46.95151515151515</v>
       </c>
       <c r="D2">
-        <v>0.0002905547507068672</v>
+        <v>0.0006486136563357338</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -485,13 +539,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="C3">
-        <v>68.86</v>
+        <v>48.03550295857988</v>
       </c>
       <c r="D3">
-        <v>0.0003765073416197755</v>
+        <v>0.0006796754436728395</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -499,13 +553,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="C4">
-        <v>64.41666666666667</v>
+        <v>46.79518072289157</v>
       </c>
       <c r="D4">
-        <v>0.0003381239327006523</v>
+        <v>0.0006503718707133059</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -513,13 +567,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="C5">
-        <v>42.74820143884892</v>
+        <v>69.80555555555556</v>
       </c>
       <c r="D5">
-        <v>0.0006497840905909689</v>
+        <v>0.0002748077111503038</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -527,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="C6">
-        <v>43.94666666666667</v>
+        <v>66.55263157894737</v>
       </c>
       <c r="D6">
-        <v>0.0007208644774782341</v>
+        <v>0.0002765573822121441</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -541,13 +595,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="C7">
-        <v>43.7448275862069</v>
+        <v>67.94871794871794</v>
       </c>
       <c r="D7">
-        <v>0.0006936352215783433</v>
+        <v>0.0002897892696173119</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -555,13 +609,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C8">
-        <v>65.68269230769231</v>
+        <v>38.52173913043478</v>
       </c>
       <c r="D8">
-        <v>0.0007470001889644747</v>
+        <v>0.0004844401752470536</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -569,13 +623,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C9">
-        <v>66.65957446808511</v>
+        <v>38.24793388429752</v>
       </c>
       <c r="D9">
-        <v>0.0006852149295932364</v>
+        <v>0.0005060923546373282</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -583,13 +637,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="C10">
-        <v>60.1830985915493</v>
+        <v>38.168</v>
       </c>
       <c r="D10">
-        <v>0.0004672715279527449</v>
+        <v>0.0005217300397525266</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -597,13 +651,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C11">
-        <v>57.34782608695652</v>
+        <v>66.93406593406593</v>
       </c>
       <c r="D11">
-        <v>0.0002884770163209317</v>
+        <v>0.0006660779023543573</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -611,13 +665,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C12">
-        <v>59.87878787878788</v>
+        <v>66.73563218390805</v>
       </c>
       <c r="D12">
-        <v>0.0002160843761372862</v>
+        <v>0.0006349118865653259</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -625,13 +679,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C13">
-        <v>64.82352941176471</v>
+        <v>58.36111111111111</v>
       </c>
       <c r="D13">
-        <v>0.0002410171887685115</v>
+        <v>0.0004595073626158282</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -639,13 +693,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C14">
-        <v>63.69047619047619</v>
+        <v>52.42105263157895</v>
       </c>
       <c r="D14">
-        <v>0.0002925231306514375</v>
+        <v>0.0008539094650205761</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -653,13 +707,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="C15">
-        <v>62.14893617021276</v>
+        <v>47.66666666666666</v>
       </c>
       <c r="D15">
-        <v>0.0003194243232272333</v>
+        <v>0.001011445473251029</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -667,13 +721,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C16">
-        <v>64.15384615384616</v>
+        <v>44.79245283018868</v>
       </c>
       <c r="D16">
-        <v>0.0002736048122952885</v>
+        <v>0.0005088305898491084</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -681,13 +735,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="C17">
-        <v>66.50442477876106</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>0.0008217986268581507</v>
+        <v>0.0001133830589849108</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -695,13 +749,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="C18">
-        <v>67.38655462184875</v>
+        <v>23.10526315789474</v>
       </c>
       <c r="D18">
-        <v>0.0008769132653061226</v>
+        <v>9.409293552812072e-05</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -709,13 +763,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>63.7787610619469</v>
+        <v>23.83333333333333</v>
       </c>
       <c r="D19">
-        <v>0.0007881174589177234</v>
+        <v>9.194958847736625e-05</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -723,13 +777,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>64.86842105263158</v>
+        <v>63.68</v>
       </c>
       <c r="D20">
-        <v>0.0002695586979647826</v>
+        <v>0.0001740922706531172</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -737,13 +791,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C21">
-        <v>68.69090909090909</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="D21">
-        <v>0.0004131410794770583</v>
+        <v>0.0001913702723887909</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -751,13 +805,265 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C22">
-        <v>68.34090909090909</v>
+        <v>56.88235294117647</v>
       </c>
       <c r="D22">
-        <v>0.0003288288051846253</v>
+        <v>0.0002114914895999552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>58.25</v>
+      </c>
+      <c r="D23">
+        <v>0.000229316263542454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <v>65.53846153846153</v>
+      </c>
+      <c r="D24">
+        <v>0.0002795099521289998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>66.6774193548387</v>
+      </c>
+      <c r="D25">
+        <v>0.0002260356303015033</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>67</v>
+      </c>
+      <c r="C26">
+        <v>62.6865671641791</v>
+      </c>
+      <c r="D26">
+        <v>0.0009002057613168725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>69</v>
+      </c>
+      <c r="C27">
+        <v>61.76811594202898</v>
+      </c>
+      <c r="D27">
+        <v>0.00091349451303155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>22.59090909090909</v>
+      </c>
+      <c r="D28">
+        <v>0.000497</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>78</v>
+      </c>
+      <c r="C29">
+        <v>69.48717948717949</v>
+      </c>
+      <c r="D29">
+        <v>0.0005927010721984267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>89</v>
+      </c>
+      <c r="C30">
+        <v>64.25842696629213</v>
+      </c>
+      <c r="D30">
+        <v>0.0006253980501665687</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>88</v>
+      </c>
+      <c r="C31">
+        <v>63.30681818181818</v>
+      </c>
+      <c r="D31">
+        <v>0.0006092135928445452</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>107</v>
+      </c>
+      <c r="C32">
+        <v>25.24299065420561</v>
+      </c>
+      <c r="D32">
+        <v>0.0005789180384087792</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>102</v>
+      </c>
+      <c r="C33">
+        <v>22.6078431372549</v>
+      </c>
+      <c r="D33">
+        <v>0.0004942558299039781</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>97</v>
+      </c>
+      <c r="C34">
+        <v>28.61855670103093</v>
+      </c>
+      <c r="D34">
+        <v>0.0005949931412894375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>111</v>
+      </c>
+      <c r="C35">
+        <v>30.03603603603604</v>
+      </c>
+      <c r="D35">
+        <v>0.0007145919067215364</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>106</v>
+      </c>
+      <c r="C36">
+        <v>32.14150943396226</v>
+      </c>
+      <c r="D36">
+        <v>0.0007302383401920439</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>110</v>
+      </c>
+      <c r="C37">
+        <v>30.58181818181818</v>
+      </c>
+      <c r="D37">
+        <v>0.0007210219478737997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>84.75</v>
+      </c>
+      <c r="D38">
+        <v>0.0002224269337364576</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>34</v>
+      </c>
+      <c r="C39">
+        <v>70.85294117647059</v>
+      </c>
+      <c r="D39">
+        <v>0.0002634348492483413</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>34</v>
+      </c>
+      <c r="C40">
+        <v>75.55882352941177</v>
+      </c>
+      <c r="D40">
+        <v>0.000280931559866745</v>
       </c>
     </row>
   </sheetData>
